--- a/src/main/resources/5.xlsx
+++ b/src/main/resources/5.xlsx
@@ -17,7 +17,7 @@
     <t>附件1：</t>
   </si>
   <si>
-    <t>XX人身保险公司标准化监管数据报送清单</t>
+    <t>某某保险公司</t>
   </si>
   <si>
     <t/>
